--- a/data/ReprintData.xlsx
+++ b/data/ReprintData.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Passport Number</t>
   </si>
@@ -24,118 +27,37 @@
     <t>Visa Number</t>
   </si>
   <si>
-    <t>TE2404201931</t>
-  </si>
-  <si>
-    <t>TE2404201933</t>
-  </si>
-  <si>
-    <t>TE2404201912</t>
-  </si>
-  <si>
-    <t>TE2404201930</t>
-  </si>
-  <si>
-    <t>IND003</t>
-  </si>
-  <si>
-    <t>032019000031</t>
-  </si>
-  <si>
-    <t>IND006</t>
-  </si>
-  <si>
-    <t>032019000034</t>
-  </si>
-  <si>
-    <t>IND3</t>
-  </si>
-  <si>
-    <t>032019000064</t>
-  </si>
-  <si>
-    <t>IND100</t>
-  </si>
-  <si>
-    <t>032019000070</t>
-  </si>
-  <si>
-    <t>TE08012020</t>
-  </si>
-  <si>
-    <t>TE080120201</t>
-  </si>
-  <si>
-    <t>TE080120202</t>
-  </si>
-  <si>
-    <t>TE080120203</t>
-  </si>
-  <si>
-    <t>TE080120204</t>
-  </si>
-  <si>
-    <t>TE080120205</t>
-  </si>
-  <si>
-    <t>TE080120206</t>
-  </si>
-  <si>
-    <t>TE080120207</t>
-  </si>
-  <si>
-    <t>TE080120208</t>
-  </si>
-  <si>
-    <t>TE080120209</t>
-  </si>
-  <si>
-    <t>TE0801202011</t>
-  </si>
-  <si>
-    <t>362019000197</t>
-  </si>
-  <si>
-    <t>362019000177</t>
-  </si>
-  <si>
-    <t>362019000194</t>
-  </si>
-  <si>
-    <t>362020000009</t>
-  </si>
-  <si>
-    <t>362020000010</t>
-  </si>
-  <si>
-    <t>362020000011</t>
-  </si>
-  <si>
-    <t>362020000012</t>
-  </si>
-  <si>
-    <t>362020000013</t>
-  </si>
-  <si>
-    <t>362020000014</t>
-  </si>
-  <si>
-    <t>362020000015</t>
-  </si>
-  <si>
-    <t>362020000016</t>
-  </si>
-  <si>
-    <t>362020000017</t>
-  </si>
-  <si>
-    <t>362020000018</t>
-  </si>
-  <si>
-    <t>362020000020</t>
-  </si>
-  <si>
-    <t>362019000195</t>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>AAA12345AA</t>
+  </si>
+  <si>
+    <t>032018000116</t>
   </si>
 </sst>
 </file>
@@ -159,24 +81,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -206,38 +116,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,6 +139,23 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="India"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,177 +443,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="30">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>[1]Sheet2!A1:A6</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -710,12 +497,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
